--- a/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.301254228867463</v>
+        <v>-1.121435001765298</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.097567213292024</v>
+        <v>-2.004750296602629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2137242555178034</v>
+        <v>-0.3569585425007098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.649825899191218</v>
+        <v>1.456482859540601</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.856236932350339</v>
+        <v>2.237788965555117</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.997074646682561</v>
+        <v>1.752482368942819</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8593635842351374</v>
+        <v>0.8823446019670859</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5764275557045452</v>
+        <v>0.5560540079890146</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.368178360030579</v>
+        <v>1.320776749306708</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.470994982730683</v>
+        <v>2.675051809670516</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.242483462249784</v>
+        <v>1.349714105155307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.36279724775537</v>
+        <v>3.702598659181465</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.360937642283858</v>
+        <v>6.157971062339153</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.856690357255165</v>
+        <v>7.040390071722717</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.862477088749537</v>
+        <v>5.680739285546108</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.798796520434617</v>
+        <v>3.774645395438822</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.43462028072758</v>
+        <v>3.40817555283153</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.132341359756277</v>
+        <v>4.047561429645415</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3655098059973121</v>
+        <v>-0.3324762586163017</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5641340572763757</v>
+        <v>-0.5778259257307982</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.09306615717865332</v>
+        <v>-0.1019756647105746</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3753878437122831</v>
+        <v>0.338207805143824</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4169110442543564</v>
+        <v>0.4870640305477103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4342378362250245</v>
+        <v>0.3481603810165807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2199616377948725</v>
+        <v>0.1925203772224111</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1560868791894905</v>
+        <v>0.1487031910037797</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3589545908520164</v>
+        <v>0.3598567742189708</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.217867521836554</v>
+        <v>1.376952694453045</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6598919334145245</v>
+        <v>0.6900444693078783</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.681702526479101</v>
+        <v>1.919671147098106</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.815830673578181</v>
+        <v>2.576089134965287</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.821753782801878</v>
+        <v>2.978844610045539</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.599591117105596</v>
+        <v>2.465060072548781</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.550316605124547</v>
+        <v>1.466190915234373</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.445123328303628</v>
+        <v>1.345733218557299</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.653575144103854</v>
+        <v>1.648509037845001</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5444480037412145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6076036811934828</v>
+        <v>0.6076036811934822</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.368741991558802</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.05308284903426</v>
+        <v>-1.047157685017194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8013656700088023</v>
+        <v>-0.8727690328650379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.916200354101683</v>
+        <v>-0.841917420936668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.08656380261026762</v>
+        <v>-0.1072549335643847</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.252467017672449</v>
+        <v>-1.388968261560922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.116578991855314</v>
+        <v>2.400021108106323</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03317428975168878</v>
+        <v>-0.000242892947258091</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5719131472272163</v>
+        <v>-0.5564741936799326</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.266094307870331</v>
+        <v>1.221117008281437</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.928190481807206</v>
+        <v>2.007959400319788</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.027814085591812</v>
+        <v>2.06925825620763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.120866569511735</v>
+        <v>2.052043655111606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.558318489791196</v>
+        <v>4.817940733426274</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.033414252401075</v>
+        <v>3.173968601324288</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.316540471977798</v>
+        <v>6.480273598959367</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.804274175354363</v>
+        <v>2.83426489337715</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.122268593209932</v>
+        <v>2.150253762564601</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.924573433491384</v>
+        <v>3.784495808655347</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2151641577911373</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2401230850998414</v>
+        <v>0.2401230850998411</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4161186108515709</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3508584948002103</v>
+        <v>-0.3333681050156659</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2637399141315098</v>
+        <v>-0.2807507605885001</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2788996992557624</v>
+        <v>-0.2761822136757154</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01881480789537508</v>
+        <v>-0.03002581019177982</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1893263147655193</v>
+        <v>-0.2097401168130243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2929469808116521</v>
+        <v>0.3372123928295032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.004609638162279771</v>
+        <v>-0.001477040144024053</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1256706199294034</v>
+        <v>-0.121080876390791</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2615969881297511</v>
+        <v>0.2475696834317328</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9800176642599263</v>
+        <v>1.20086702121574</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.138966432899023</v>
+        <v>1.187771844276856</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.138295294712845</v>
+        <v>1.165896337521063</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.007274293448226</v>
+        <v>1.01138673815118</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6233427765186192</v>
+        <v>0.6795432845441244</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.384661694572551</v>
+        <v>1.445717014331779</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8074246655665233</v>
+        <v>0.7999259816473125</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5901462708668955</v>
+        <v>0.6203171776485776</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.17087154411</v>
+        <v>1.111868410035143</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.275799227924754</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.753297109553448</v>
+        <v>1.753297109553449</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5266727066134411</v>
+        <v>-0.4831495339228867</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1689512297647182</v>
+        <v>0.2675069411876572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.134451661242455</v>
+        <v>1.264918961760229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.50063326265735</v>
+        <v>-3.305328774287535</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.172502659474659</v>
+        <v>-2.045223747846493</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.051950763248547</v>
+        <v>-1.836173020352913</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.575779745724663</v>
+        <v>-1.30106990089783</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3478517763981515</v>
+        <v>-0.5456549244175972</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1686076659443588</v>
+        <v>0.1284186434082304</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.336891792761131</v>
+        <v>3.414434852084089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.050188491629378</v>
+        <v>3.740088754351725</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.0217721081621</v>
+        <v>4.903495328523032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.469108917129617</v>
+        <v>1.774414502048595</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.219886095838981</v>
+        <v>3.070360088519122</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.809177688574779</v>
+        <v>2.802308170660613</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.790424711214728</v>
+        <v>1.789922381128192</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.981841260514073</v>
+        <v>2.825583563512731</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.33270771270649</v>
+        <v>3.219315344000906</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.016485826008299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.518997650873973</v>
+        <v>1.518997650873972</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1299137306667186</v>
@@ -1197,7 +1197,7 @@
         <v>0.2901167355118162</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3986997504563078</v>
+        <v>0.398699750456308</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2448502590485972</v>
+        <v>-0.1969376540508879</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01116160924134296</v>
+        <v>-0.02284817318586776</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2789550419739439</v>
+        <v>0.3799810898782963</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4491982308985839</v>
+        <v>-0.4151471455522843</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2555416877657045</v>
+        <v>-0.2458895621548723</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2400272019780621</v>
+        <v>-0.2217306158913219</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3063740159340463</v>
+        <v>-0.2628468831812105</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07126054661417125</v>
+        <v>-0.09947574615364373</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.02303580146740603</v>
+        <v>0.02149373085890662</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.717221092909143</v>
+        <v>2.858374075105215</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.197188338731671</v>
+        <v>2.917169057998388</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.00357807941056</v>
+        <v>4.143730201953741</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2564923941719982</v>
+        <v>0.3307654392423089</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.587533837053138</v>
+        <v>0.5336860078217516</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4953740768572092</v>
+        <v>0.5009876817968013</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4677194575795202</v>
+        <v>0.477716130762217</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8267889940927796</v>
+        <v>0.7913168684788834</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8707828175086376</v>
+        <v>0.9083002323722154</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.472963475208138</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.517153821944722</v>
+        <v>2.517153821944723</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7736431154097377</v>
+        <v>-0.8434606124416913</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1725330808116748</v>
+        <v>-0.3525493734608467</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3469511549311933</v>
+        <v>0.2372288865361862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4330779948282401</v>
+        <v>-0.4115516414140052</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.063226385156129</v>
+        <v>0.9720257918509142</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.038345021559244</v>
+        <v>0.9860997168966598</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08936579622304382</v>
+        <v>-0.02951188479972046</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.029431022542738</v>
+        <v>0.9391886259688776</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.211097153742781</v>
+        <v>1.178528770393101</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.740844642124856</v>
+        <v>2.820550383135657</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.27874985619362</v>
+        <v>3.242407490690279</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.701364511417169</v>
+        <v>3.535890546857196</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.771227449562786</v>
+        <v>3.886835505796773</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.811933101022364</v>
+        <v>5.88347721763122</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.030027211284769</v>
+        <v>5.159966578802259</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.890838108996294</v>
+        <v>2.727222107560014</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.981831679718923</v>
+        <v>3.939760125405927</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.728815169144354</v>
+        <v>3.721556221037899</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.5932737982467932</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6038752386308041</v>
+        <v>0.6038752386308044</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2401561599452046</v>
+        <v>-0.266922644849261</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07248405843666042</v>
+        <v>-0.09382340181831934</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0847081633907458</v>
+        <v>0.04694445552047305</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08015602616367529</v>
+        <v>-0.06371603668945593</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1416021432258256</v>
+        <v>0.150142363693337</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1474084432685566</v>
+        <v>0.1514140044844503</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01387802357445137</v>
+        <v>-0.009471195958066839</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2075945418732242</v>
+        <v>0.1978357224548897</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2488678879682243</v>
+        <v>0.2247140233988959</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.244793930463694</v>
+        <v>1.280971237514317</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.481963191802625</v>
+        <v>1.539868956574852</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.731066461439722</v>
+        <v>1.658890759914887</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8594010288642441</v>
+        <v>0.8971348160882862</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.267568558414113</v>
+        <v>1.37290781212592</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.183060936614446</v>
+        <v>1.260229779280577</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8080711790905645</v>
+        <v>0.7668343504257827</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.11284092727682</v>
+        <v>1.098670316656535</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.054640345461668</v>
+        <v>1.041962496045331</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.305088435582453</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.086081752780349</v>
+        <v>3.086081752780347</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.297663962499146</v>
@@ -1520,7 +1520,7 @@
         <v>1.626040548662887</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.418405875604181</v>
+        <v>2.418405875604182</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.09334181086066293</v>
+        <v>-0.02862278686524345</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05972887648799836</v>
+        <v>0.1282204596242932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6875786019044284</v>
+        <v>0.8787205230301425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6652956667534335</v>
+        <v>0.604170122161468</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.120056974993788</v>
+        <v>1.016226501297939</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.9758664560578</v>
+        <v>1.998496385560168</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5513431164198285</v>
+        <v>0.6458980972582318</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.925080849700424</v>
+        <v>0.887069025075058</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.746121137065828</v>
+        <v>1.707122464468465</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.666832059503698</v>
+        <v>1.719981801507288</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.782157088875023</v>
+        <v>1.87027521824339</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.47794798967496</v>
+        <v>2.668932191307515</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.031117583195762</v>
+        <v>2.948855471186094</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.502774629837385</v>
+        <v>3.5352826213294</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.24286430263368</v>
+        <v>4.110487097087534</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.05567566067157</v>
+        <v>2.055683900944759</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.349740318955702</v>
+        <v>2.434035537937447</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.113801618681024</v>
+        <v>3.036919469456609</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3486191772010546</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6504018022723776</v>
+        <v>0.6504018022723774</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3369302025534935</v>
@@ -1616,7 +1616,7 @@
         <v>0.4324098600064086</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5789158273013901</v>
+        <v>0.5789158273013896</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3262531394157355</v>
@@ -1625,7 +1625,7 @@
         <v>0.4088121803096625</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6080252916770383</v>
+        <v>0.6080252916770387</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03558634257476315</v>
+        <v>-0.01253311858829447</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.01593623857403018</v>
+        <v>0.03266665200735361</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2146313820188481</v>
+        <v>0.2966453589127588</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1113552324009981</v>
+        <v>0.09802306418956731</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1857097376321045</v>
+        <v>0.1666749514512523</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3293811923171386</v>
+        <v>0.3236162215123238</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1304098957769113</v>
+        <v>0.1540391317471579</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2069190858996437</v>
+        <v>0.2015266273713338</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3996519797119414</v>
+        <v>0.3893202273906968</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.731966315383575</v>
+        <v>0.7678494531162547</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.82272352838878</v>
+        <v>0.8596580790278847</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.120780554481852</v>
+        <v>1.235630194984883</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6228451247664959</v>
+        <v>0.6041345348423924</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.747089634857664</v>
+        <v>0.7374344585759268</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9100614519753216</v>
+        <v>0.8551314576287248</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5613009789367566</v>
+        <v>0.5585859729694311</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6455747762859625</v>
+        <v>0.6726089481313972</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8594960629831337</v>
+        <v>0.8384339595993034</v>
       </c>
     </row>
     <row r="34">
